--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,25 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jozsa\source\repos\OneRecordNov23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jozr\Documents\GitHub\OneRecordNov23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4156D73F-8229-48DC-B3C9-070D3CD12C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D3F426-80B0-419C-A215-097FD7C821BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4511F9AD-CFB1-42C3-8C39-8292DEBA11B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="879" activeTab="3" xr2:uid="{4511F9AD-CFB1-42C3-8C39-8292DEBA11B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
-    <sheet name="Waybill" sheetId="11" r:id="rId2"/>
-    <sheet name="VolumetricWeight" sheetId="10" r:id="rId3"/>
-    <sheet name="Value" sheetId="9" r:id="rId4"/>
-    <sheet name="Dimensions" sheetId="8" r:id="rId5"/>
-    <sheet name="Check" sheetId="7" r:id="rId6"/>
-    <sheet name="IotDevice" sheetId="6" r:id="rId7"/>
-    <sheet name="Party" sheetId="5" r:id="rId8"/>
-    <sheet name="Location" sheetId="4" r:id="rId9"/>
-    <sheet name="Piece" sheetId="2" r:id="rId10"/>
-    <sheet name="LoadingUnit" sheetId="3" r:id="rId11"/>
+    <sheet name="Piece" sheetId="2" r:id="rId2"/>
+    <sheet name="SecurityDeclaration" sheetId="21" r:id="rId3"/>
+    <sheet name="RegulatedEntity" sheetId="23" r:id="rId4"/>
+    <sheet name="PackagingType" sheetId="20" r:id="rId5"/>
+    <sheet name="OtherIdentifier" sheetId="19" r:id="rId6"/>
+    <sheet name="HandlingInstructions" sheetId="18" r:id="rId7"/>
+    <sheet name="CustomsInformation" sheetId="17" r:id="rId8"/>
+    <sheet name="Country" sheetId="16" r:id="rId9"/>
+    <sheet name="Product" sheetId="15" r:id="rId10"/>
+    <sheet name="Item" sheetId="14" r:id="rId11"/>
+    <sheet name="LogisticsAction" sheetId="13" r:id="rId12"/>
+    <sheet name="Waybill" sheetId="11" r:id="rId13"/>
+    <sheet name="VolumetricWeight" sheetId="10" r:id="rId14"/>
+    <sheet name="Value" sheetId="9" r:id="rId15"/>
+    <sheet name="Dimensions" sheetId="8" r:id="rId16"/>
+    <sheet name="Check" sheetId="7" r:id="rId17"/>
+    <sheet name="IotDevice" sheetId="6" r:id="rId18"/>
+    <sheet name="Party" sheetId="5" r:id="rId19"/>
+    <sheet name="Location" sheetId="4" r:id="rId20"/>
+    <sheet name="LogisticsEvent" sheetId="12" r:id="rId21"/>
+    <sheet name="LoadingUnit" sheetId="3" r:id="rId22"/>
+    <sheet name="Sheet11" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -160,13 +172,187 @@
   </si>
   <si>
     <t>WeightValuationIndicator</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;ExternalReference&gt;</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>List&lt;IotDevice&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;Item&gt;</t>
+  </si>
+  <si>
+    <t>ContainedItems</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>ContainedPieceInPiece</t>
+  </si>
+  <si>
+    <t>ContainedPieces</t>
+  </si>
+  <si>
+    <t>List&lt;Product&gt;</t>
+  </si>
+  <si>
+    <t>ContentDescribedByProducts</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ContentProductionCountry</t>
+  </si>
+  <si>
+    <t>List&lt;CustomsInformation&gt;</t>
+  </si>
+  <si>
+    <t>CustomsInformation</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>GrossWeight</t>
+  </si>
+  <si>
+    <t>List&lt;HandlingInstructions&gt;</t>
+  </si>
+  <si>
+    <t>HandlingInstructions</t>
+  </si>
+  <si>
+    <t>List&lt;OtherIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>OtherIdentifiers</t>
+  </si>
+  <si>
+    <t>PackagingType</t>
+  </si>
+  <si>
+    <t>Shipment</t>
+  </si>
+  <si>
+    <t>PartOfShipment</t>
+  </si>
+  <si>
+    <t>SecurityDeclaration</t>
+  </si>
+  <si>
+    <t>LoadingUnit</t>
+  </si>
+  <si>
+    <t>UldReference</t>
+  </si>
+  <si>
+    <t>Coload</t>
+  </si>
+  <si>
+    <t>DeclaredValueForCarriage</t>
+  </si>
+  <si>
+    <t>DeclaredValueForCustoms</t>
+  </si>
+  <si>
+    <t>FulfillsUldTypeCode</t>
+  </si>
+  <si>
+    <t>LoadType</t>
+  </si>
+  <si>
+    <t>NvdForCarriage</t>
+  </si>
+  <si>
+    <t>NvdForCustoms</t>
+  </si>
+  <si>
+    <t>PackageMarkCoded</t>
+  </si>
+  <si>
+    <t>PackagedeIdentifier</t>
+  </si>
+  <si>
+    <t>ShippingMarks</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Slac</t>
+  </si>
+  <si>
+    <t>Stackable</t>
+  </si>
+  <si>
+    <t>Turnable</t>
+  </si>
+  <si>
+    <t>Upid</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>IssuedBy</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>IssuedForPiece</t>
+  </si>
+  <si>
+    <t>OtherRegulatedEntities</t>
+  </si>
+  <si>
+    <t>List&lt;RegulatedEntity&gt;</t>
+  </si>
+  <si>
+    <t>ReceivedFrom</t>
+  </si>
+  <si>
+    <t>RegulatedEntity</t>
+  </si>
+  <si>
+    <t>RegulatedEntityIssuer</t>
+  </si>
+  <si>
+    <t>AdditionalSecurityInformation</t>
+  </si>
+  <si>
+    <t>GroundsForExemption</t>
+  </si>
+  <si>
+    <t>IssuedOn</t>
+  </si>
+  <si>
+    <t>OtherScreeningMethods</t>
+  </si>
+  <si>
+    <t>ScreeningMethods</t>
+  </si>
+  <si>
+    <t>SecurityStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +360,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,11 +395,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,7 +416,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5DBAD5-A592-4459-ADCD-867064FDC324}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -686,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BC7864-83CF-4C64-B033-0A2CCCDFD7E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3241F000-29D5-4C9A-B4F1-53E9D5A3F275}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -698,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CFDDC0-68F4-4BCB-BF92-49D7A4691A4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D9885-A103-4641-B597-E0EFD428C768}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -709,7 +910,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B1808D-308A-4D7B-9FA9-ABBBBACE7C6E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9011D790-699C-4EAA-976A-8AFB2295F686}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -721,7 +934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84254A80-5DC6-4C6F-9FE5-182C742D4854}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -733,7 +946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B504D4-54C6-46A6-B801-41AF003FE8C2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -747,7 +960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB6294D-C010-40C9-9B67-5FE44FA6B14B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -759,7 +972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF30EBD-2F99-480C-A4EB-8FF47620A9BF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -771,7 +984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D35D49C-3079-4A01-83BA-838AD2272B66}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -783,7 +996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12516A2-B900-41E9-BECB-8577A854F1B8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -795,7 +1008,358 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BC7864-83CF-4C64-B033-0A2CCCDFD7E7}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A986B78-EAD4-4221-A87F-FBE4715B081B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -807,4 +1371,286 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09D4603-D2E2-472F-B9C2-6E51A905AEAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CFDDC0-68F4-4BCB-BF92-49D7A4691A4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7C8EED-3B4B-41CA-A9FC-1A6C388718B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9DB6EF-80AA-4ACF-B534-31CACF664B6F}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D2F818-9F5F-44EE-9600-3B45C61E4755}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D230AA-CB40-4EB4-AA8F-8356B513F3EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE76107D-D3CA-4C9B-BBBB-F6FF9D749BA1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7801536-4FA0-438E-8FD5-62B189ECE1CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3CF212-524F-406A-AB63-0453017D3423}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF93544-955A-4C0F-88EA-85DC86C3A846}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>